--- a/GainLosConds.xlsx
+++ b/GainLosConds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Desktop\MonMon\iowa-gambling-master\iowa-gambling-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive_at_McMaster\OneDrive - McMaster University\Psychology\McMaster\Courses and Trainings\iowa_gambling_4choice_h\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F7ECF-2C9C-400D-8DD5-64E2404BBF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03B2BF3-2009-405E-8F00-CF3A8CA8C4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33645" yWindow="-570" windowWidth="21600" windowHeight="11505" xr2:uid="{76F23462-91AC-4F58-A0ED-36D0760EE49D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76F23462-91AC-4F58-A0ED-36D0760EE49D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,13 +460,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-150</v>
+        <v>-50</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -488,13 +488,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -516,13 +516,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
       <c r="C8">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -544,13 +544,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-250</v>
+        <v>-150</v>
       </c>
       <c r="B10">
-        <v>-1250</v>
+        <v>-1150</v>
       </c>
       <c r="C10">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -558,16 +558,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-350</v>
+        <v>-250</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-250</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-350</v>
+        <v>-250</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -603,10 +603,10 @@
         <v>100</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>-1150</v>
       </c>
       <c r="C14">
-        <v>-75</v>
+        <v>-25</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-250</v>
+        <v>-150</v>
       </c>
       <c r="B15">
-        <v>-1250</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="B16">
         <v>100</v>
       </c>
       <c r="C16">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -670,13 +670,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-150</v>
+        <v>-50</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
       <c r="C19">
-        <v>-75</v>
+        <v>-25</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -704,10 +704,10 @@
         <v>100</v>
       </c>
       <c r="C21">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-250</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>100</v>
       </c>
       <c r="B22" s="1">
-        <v>100</v>
+        <v>-1150</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-350</v>
+        <v>-250</v>
       </c>
       <c r="B25">
         <v>100</v>
       </c>
       <c r="C25">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>50</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="B27">
         <v>100</v>
       </c>
       <c r="C27">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>50</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-250</v>
+        <v>-150</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-150</v>
+        <v>-50</v>
       </c>
       <c r="B29">
         <v>100</v>
@@ -830,10 +830,10 @@
         <v>100</v>
       </c>
       <c r="C30">
-        <v>-75</v>
+        <v>-25</v>
       </c>
       <c r="D30">
-        <v>-250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>100</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>-1150</v>
       </c>
       <c r="C31">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>50</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-350</v>
+        <v>-250</v>
       </c>
       <c r="B32">
         <v>100</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="D32">
         <v>50</v>
@@ -866,10 +866,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="B33">
-        <v>-1250</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>50</v>
@@ -880,16 +880,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-250</v>
+        <v>-150</v>
       </c>
       <c r="B34">
         <v>100</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -914,10 +914,10 @@
         <v>100</v>
       </c>
       <c r="C36">
-        <v>-25</v>
+        <v>-200</v>
       </c>
       <c r="D36">
-        <v>-250</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -942,15 +942,15 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>-75</v>
+        <v>-25</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>100</v>
@@ -970,10 +970,10 @@
         <v>100</v>
       </c>
       <c r="C40">
-        <v>-50</v>
+        <v>-200</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>-75</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>50</v>
